--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H2">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>6685.054377878509</v>
+        <v>7785.176380869378</v>
       </c>
       <c r="R2">
-        <v>6685.054377878509</v>
+        <v>70066.5874278244</v>
       </c>
       <c r="S2">
-        <v>0.1806347827510592</v>
+        <v>0.1795827353460201</v>
       </c>
       <c r="T2">
-        <v>0.1806347827510592</v>
+        <v>0.1795827353460201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H3">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>7956.682155207894</v>
+        <v>8559.524975302436</v>
       </c>
       <c r="R3">
-        <v>7956.682155207894</v>
+        <v>77035.72477772193</v>
       </c>
       <c r="S3">
-        <v>0.2149950428647549</v>
+        <v>0.1974448404412043</v>
       </c>
       <c r="T3">
-        <v>0.2149950428647549</v>
+        <v>0.1974448404412043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H4">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>2906.453195687048</v>
+        <v>3452.736076786799</v>
       </c>
       <c r="R4">
-        <v>2906.453195687048</v>
+        <v>31074.62469108119</v>
       </c>
       <c r="S4">
-        <v>0.07853437113635889</v>
+        <v>0.07964518191532839</v>
       </c>
       <c r="T4">
-        <v>0.07853437113635889</v>
+        <v>0.07964518191532839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H5">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>3783.593863278124</v>
+        <v>4744.392458326891</v>
       </c>
       <c r="R5">
-        <v>3783.593863278124</v>
+        <v>42699.53212494202</v>
       </c>
       <c r="S5">
-        <v>0.1022353173031894</v>
+        <v>0.109440163400155</v>
       </c>
       <c r="T5">
-        <v>0.1022353173031894</v>
+        <v>0.109440163400155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H6">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>2407.367621775943</v>
+        <v>2623.325242768502</v>
       </c>
       <c r="R6">
-        <v>2407.367621775943</v>
+        <v>23609.92718491652</v>
       </c>
       <c r="S6">
-        <v>0.06504873450250556</v>
+        <v>0.06051294148662836</v>
       </c>
       <c r="T6">
-        <v>0.06504873450250556</v>
+        <v>0.06051294148662838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H7">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>2865.295914509616</v>
+        <v>2884.252948847231</v>
       </c>
       <c r="R7">
-        <v>2865.295914509616</v>
+        <v>25958.27653962509</v>
       </c>
       <c r="S7">
-        <v>0.07742227299566001</v>
+        <v>0.06653183032006903</v>
       </c>
       <c r="T7">
-        <v>0.07742227299566001</v>
+        <v>0.06653183032006903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H8">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>1046.648377410009</v>
+        <v>1163.448233377189</v>
       </c>
       <c r="R8">
-        <v>1046.648377410009</v>
+        <v>10471.0341003947</v>
       </c>
       <c r="S8">
-        <v>0.02828116146606482</v>
+        <v>0.02683757001277322</v>
       </c>
       <c r="T8">
-        <v>0.02828116146606482</v>
+        <v>0.02683757001277323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H9">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>1362.5171682293</v>
+        <v>1598.690111647743</v>
       </c>
       <c r="R9">
-        <v>1362.5171682293</v>
+        <v>14388.21100482969</v>
       </c>
       <c r="S9">
-        <v>0.03681615418000432</v>
+        <v>0.03687741024414345</v>
       </c>
       <c r="T9">
-        <v>0.03681615418000432</v>
+        <v>0.03687741024414345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H10">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>2193.827129264792</v>
+        <v>2815.592087639312</v>
       </c>
       <c r="R10">
-        <v>2193.827129264792</v>
+        <v>25340.32878875382</v>
       </c>
       <c r="S10">
-        <v>0.05927872302721415</v>
+        <v>0.06494801196275718</v>
       </c>
       <c r="T10">
-        <v>0.05927872302721415</v>
+        <v>0.06494801196275719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H11">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>2611.135853852491</v>
+        <v>3095.643517291941</v>
       </c>
       <c r="R11">
-        <v>2611.135853852491</v>
+        <v>27860.79165562747</v>
       </c>
       <c r="S11">
-        <v>0.07055469275686389</v>
+        <v>0.07140803281702668</v>
       </c>
       <c r="T11">
-        <v>0.07055469275686389</v>
+        <v>0.07140803281702668</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H12">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>953.8076297084797</v>
+        <v>1248.718834732696</v>
       </c>
       <c r="R12">
-        <v>953.8076297084797</v>
+        <v>11238.46951259426</v>
       </c>
       <c r="S12">
-        <v>0.02577254039231468</v>
+        <v>0.02880452966620524</v>
       </c>
       <c r="T12">
-        <v>0.02577254039231468</v>
+        <v>0.02880452966620524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H13">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>1241.657942356708</v>
+        <v>1715.860144048411</v>
       </c>
       <c r="R13">
-        <v>1241.657942356708</v>
+        <v>15442.7412964357</v>
       </c>
       <c r="S13">
-        <v>0.03355045449008122</v>
+        <v>0.03958020256247807</v>
       </c>
       <c r="T13">
-        <v>0.03355045449008122</v>
+        <v>0.03958020256247807</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H14">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>311.7037056426827</v>
+        <v>527.8912561476039</v>
       </c>
       <c r="R14">
-        <v>311.7037056426827</v>
+        <v>4751.021305328436</v>
       </c>
       <c r="S14">
-        <v>0.008422449238076991</v>
+        <v>0.01217700808644323</v>
       </c>
       <c r="T14">
-        <v>0.008422449238076991</v>
+        <v>0.01217700808644324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H15">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>370.99583222633</v>
+        <v>580.3976904547161</v>
       </c>
       <c r="R15">
-        <v>370.99583222633</v>
+        <v>5223.579214092445</v>
       </c>
       <c r="S15">
-        <v>0.01002456341679281</v>
+        <v>0.01338818797946505</v>
       </c>
       <c r="T15">
-        <v>0.01002456341679281</v>
+        <v>0.01338818797946505</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H16">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>135.5190519273192</v>
+        <v>234.12047403319</v>
       </c>
       <c r="R16">
-        <v>135.5190519273192</v>
+        <v>2107.08426629871</v>
       </c>
       <c r="S16">
-        <v>0.003661818306897502</v>
+        <v>0.005400519277983531</v>
       </c>
       <c r="T16">
-        <v>0.003661818306897502</v>
+        <v>0.005400519277983533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H17">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>176.4174472137911</v>
+        <v>321.704117152413</v>
       </c>
       <c r="R17">
-        <v>176.4174472137911</v>
+        <v>2895.337054371717</v>
       </c>
       <c r="S17">
-        <v>0.004766921172161444</v>
+        <v>0.007420834481319142</v>
       </c>
       <c r="T17">
-        <v>0.004766921172161444</v>
+        <v>0.007420834481319142</v>
       </c>
     </row>
   </sheetData>
